--- a/java/New folder/TC001.xlsx
+++ b/java/New folder/TC001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DURAIRAJ\eclipse-workspace\ourbasic\src\main\java\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DURAIRAJ\eclipse-workspace\Cucumber\src\main\java\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>Theanraj</t>
+    <t>sdurairaj</t>
   </si>
   <si>
-    <t>Theanraj@123</t>
+    <t>56SCWM</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="Theanraj@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
